--- a/ReportTemplate.xlsx
+++ b/ReportTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Senior_Part1\GraduationProject\UpperComputer\buildTemperatureSensorCalibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Senior_Part1\GraduationProject\UpperComputer\TemperatureSensorCalibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5FD370-1B92-47B6-BDC9-AAF584811407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF771CF-4ADE-43C4-99D3-0DCABE4DFFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportTemplate" sheetId="1" r:id="rId1"/>
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:P302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1196,21 +1196,11 @@
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3</v>
-      </c>
-      <c r="F12" s="4">
-        <v>4</v>
-      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">

--- a/ReportTemplate.xlsx
+++ b/ReportTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Senior_Part1\GraduationProject\UpperComputer\TemperatureSensorCalibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF771CF-4ADE-43C4-99D3-0DCABE4DFFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A291E3-1DCF-4CC4-9996-EBD4B081A3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11535" yWindow="8145" windowWidth="20760" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportTemplate" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -621,6 +621,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -750,7 +787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +804,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1127,7 +1173,7 @@
   <dimension ref="A1:P302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1146,7 +1192,9 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -1169,18 +1217,20 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">

--- a/ReportTemplate.xlsx
+++ b/ReportTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Senior_Part1\GraduationProject\UpperComputer\TemperatureSensorCalibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AE1F29-0753-46C3-B7BB-32EC30047F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BC34CF-FC1C-448B-BBB2-DCA809F4C248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="5160" windowWidth="23820" windowHeight="18315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11310" yWindow="11895" windowWidth="23190" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主要信息" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>校准地点</t>
   </si>
@@ -81,9 +81,6 @@
     <t>标准值</t>
   </si>
   <si>
-    <t>待测值</t>
-  </si>
-  <si>
     <t>温度传感器校准报表</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -116,15 +113,18 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>平均</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>待定值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,8 +300,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +486,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -822,7 +835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -853,7 +866,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1211,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1224,13 +1241,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>18</v>
+      <c r="A3" s="11" t="s">
+        <v>17</v>
       </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1278,17 +1298,20 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -1313,11 +1336,14 @@
       <c r="I14" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
@@ -1332,7 +1358,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -1345,7 +1371,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -1358,564 +1384,6 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="7"/>
-      <c r="C28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="7"/>
-      <c r="C29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="7"/>
-      <c r="C30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="7"/>
-      <c r="C31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="Q31" s="2"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="7"/>
-      <c r="C32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="Q32" s="2"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B33" s="7"/>
-      <c r="C33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="7"/>
-      <c r="C34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="Q34" s="2"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="7"/>
-      <c r="C35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="Q35" s="2"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B36" s="7"/>
-      <c r="C36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="Q36" s="2"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B37" s="7"/>
-      <c r="C37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B38" s="7"/>
-      <c r="C38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B39" s="7"/>
-      <c r="C39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="Q39" s="2"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="7"/>
-      <c r="C40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="Q40" s="2"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B41" s="7"/>
-      <c r="C41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="Q41" s="2"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B42" s="7"/>
-      <c r="C42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B43" s="7"/>
-      <c r="C43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="Q43" s="2"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="7"/>
-      <c r="C44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B45" s="7"/>
-      <c r="C45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="Q45" s="2"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B46" s="7"/>
-      <c r="C46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="Q46" s="2"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B47" s="7"/>
-      <c r="C47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="Q47" s="2"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B48" s="7"/>
-      <c r="C48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B49" s="7"/>
-      <c r="C49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="Q49" s="2"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B50" s="7"/>
-      <c r="C50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="Q50" s="2"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B51" s="7"/>
-      <c r="C51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="Q51" s="2"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B52" s="7"/>
-      <c r="C52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="Q52" s="2"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B53" s="7"/>
-      <c r="C53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="Q53" s="2"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B54" s="7"/>
-      <c r="C54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="Q54" s="2"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B55" s="7"/>
-      <c r="C55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="Q55" s="2"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B56" s="7"/>
-      <c r="C56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="Q56" s="2"/>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B57" s="7"/>
-      <c r="C57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="Q57" s="2"/>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B58" s="7"/>
-      <c r="C58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="Q58" s="2"/>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B59" s="7"/>
-      <c r="C59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="Q59" s="2"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B60" s="7"/>
-      <c r="C60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="Q60" s="2"/>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B61" s="7"/>
-      <c r="C61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="Q61" s="2"/>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B62" s="7"/>
-      <c r="C62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="Q62" s="2"/>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B63" s="7"/>
-      <c r="C63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="Q63" s="2"/>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B64" s="7"/>
-      <c r="C64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="Q64" s="2"/>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B65" s="7"/>
-      <c r="C65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="Q65" s="2"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B66" s="7"/>
-      <c r="C66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="Q66" s="2"/>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B67" s="7"/>
-      <c r="C67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="Q67" s="2"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B68" s="7"/>
-      <c r="C68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="Q68" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1927,24 +1395,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F851F3-20B0-4C90-B03C-0E8579BCCB3B}">
   <dimension ref="A1:Q283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="3" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -1963,11 +1432,11 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
@@ -1990,54 +1459,26 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2057,20 +1498,30 @@
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>21</v>
+      <c r="A7" t="s">
+        <v>23</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="B8" s="7"/>
       <c r="C8" s="2"/>
       <c r="E8" s="2"/>

--- a/ReportTemplate.xlsx
+++ b/ReportTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Senior_Part1\GraduationProject\UpperComputer\TemperatureSensorCalibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BC34CF-FC1C-448B-BBB2-DCA809F4C248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD585D16-5C20-4701-B993-2683DE194C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11310" yWindow="11895" windowWidth="23190" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6060" yWindow="6795" windowWidth="23190" windowHeight="14760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主要信息" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>校准地点</t>
   </si>
@@ -118,6 +118,10 @@
   </si>
   <si>
     <t>待定值</t>
+  </si>
+  <si>
+    <t>平均值散点图</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -931,6 +935,908 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12022663299217111"/>
+                  <c:y val="-0.11060655126990813"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.000000E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>主要信息!$B$19:$P$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>主要信息!$B$18:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-583E-491A-8153-EF27EF61A011}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1884194127"/>
+        <c:axId val="1884191247"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1884194127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1884191247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1884191247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1884194127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>32302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>646043</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C457520D-8F73-A7E9-6726-D78EB8072237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1228,10 +2134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1347,9 +2253,7 @@
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1384,10 +2288,19 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
+    <row r="21" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1395,7 +2308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F851F3-20B0-4C90-B03C-0E8579BCCB3B}">
   <dimension ref="A1:Q283"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/ReportTemplate.xlsx
+++ b/ReportTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Senior_Part1\GraduationProject\UpperComputer\TemperatureSensorCalibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD585D16-5C20-4701-B993-2683DE194C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E605A5AB-C9F4-4FE6-BCF9-5A6B3803013B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="6795" windowWidth="23190" windowHeight="14760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="8265" windowWidth="25755" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主要信息" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>校准地点</t>
   </si>
@@ -121,6 +121,14 @@
   </si>
   <si>
     <t>平均值散点图</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -839,7 +847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -877,6 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1240,7 +1249,400 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>测量细节!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B28B-4024-8A9C-AE73835B6975}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="469064816"/>
+        <c:axId val="469065296"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>测量细节!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B28B-4024-8A9C-AE73835B6975}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="476705456"/>
+        <c:axId val="476706416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="469064816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469065296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="469065296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469064816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="476706416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476705456"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="476705456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="476706416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1796,6 +2198,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1817,6 +2735,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C457520D-8F73-A7E9-6726-D78EB8072237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82443F4-AF53-5063-3F83-38D188381A32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,10 +3265,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F851F3-20B0-4C90-B03C-0E8579BCCB3B}">
-  <dimension ref="A1:Q283"/>
+  <dimension ref="A1:Q282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2317,322 +3276,142 @@
     <col min="1" max="1" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="3" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-      <c r="C13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
-      <c r="C14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="7"/>
-      <c r="C17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="7"/>
-      <c r="C18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="7"/>
-      <c r="C19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="7"/>
-      <c r="C20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="7"/>
-      <c r="C21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="7"/>
-      <c r="C22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="7"/>
-      <c r="C23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="7"/>
-      <c r="C24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="7"/>
-      <c r="C25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
       <c r="C26" s="2"/>
       <c r="E26" s="2"/>
@@ -2643,7 +3422,7 @@
       <c r="O26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
       <c r="C27" s="2"/>
       <c r="E27" s="2"/>
@@ -2654,7 +3433,7 @@
       <c r="O27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="2"/>
       <c r="E28" s="2"/>
@@ -2665,7 +3444,7 @@
       <c r="O28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
       <c r="C29" s="2"/>
       <c r="E29" s="2"/>
@@ -2676,7 +3455,7 @@
       <c r="O29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
       <c r="C30" s="2"/>
       <c r="E30" s="2"/>
@@ -2687,7 +3466,7 @@
       <c r="O30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
       <c r="C31" s="2"/>
       <c r="E31" s="2"/>
@@ -2698,7 +3477,7 @@
       <c r="O31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
       <c r="C32" s="2"/>
       <c r="E32" s="2"/>
@@ -5459,19 +6238,9 @@
       <c r="O282" s="2"/>
       <c r="Q282" s="2"/>
     </row>
-    <row r="283" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B283" s="7"/>
-      <c r="C283" s="2"/>
-      <c r="E283" s="2"/>
-      <c r="G283" s="2"/>
-      <c r="I283" s="2"/>
-      <c r="K283" s="2"/>
-      <c r="M283" s="2"/>
-      <c r="O283" s="2"/>
-      <c r="Q283" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>